--- a/COUNTRYstate.xlsx
+++ b/COUNTRYstate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/MetadataProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C081C685-CB47-4A6F-90F7-A683FC3624BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E925C93-AF75-7145-A3EB-C6E53F02DF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30045" yWindow="675" windowWidth="26850" windowHeight="14865" xr2:uid="{B0E11FDB-A00F-4946-8876-F87ECDE3554A}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="16020" windowHeight="11420" xr2:uid="{B0E11FDB-A00F-4946-8876-F87ECDE3554A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="297">
   <si>
     <t xml:space="preserve">ES..SENDERS_COUNTRY |  ES..ADDRESSEES_COUNTRY </t>
   </si>
@@ -552,9 +552,6 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Distrito de Columbia</t>
-  </si>
-  <si>
     <t>District of Columbia</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Luisiana</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
@@ -609,24 +603,15 @@
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Nuevo México</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
-    <t>Nueva York</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
     <t>Ohio</t>
   </si>
   <si>
-    <t>Oregón</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
@@ -648,9 +633,6 @@
     <t>Virginia Occidental</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
@@ -820,6 +802,129 @@
   </si>
   <si>
     <t>Cananea (Sonora, Mexico)</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oklahoma (Okla.)</t>
+  </si>
+  <si>
+    <t>Distrito de Columbia (D.C.)</t>
+  </si>
+  <si>
+    <t>Missouri (Mo.)</t>
+  </si>
+  <si>
+    <t>Georgia (Ga.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas (Kan.) </t>
+  </si>
+  <si>
+    <t>Nuevo México (N.M.)</t>
+  </si>
+  <si>
+    <t>Texas (Tex.)</t>
+  </si>
+  <si>
+    <t>Maryland (Md.)</t>
+  </si>
+  <si>
+    <t>West Virginia (W. Va.)</t>
+  </si>
+  <si>
+    <t>Massachusetts (Mass.)</t>
+  </si>
+  <si>
+    <t>California (Calif.)</t>
+  </si>
+  <si>
+    <t>Puerto Rico (P.R.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina (N.C.) </t>
+  </si>
+  <si>
+    <t>Alaska (Ala.)</t>
+  </si>
+  <si>
+    <t>Mississippi (Miss.)</t>
+  </si>
+  <si>
+    <t>Pennsylvania (Pa.)</t>
+  </si>
+  <si>
+    <t>Illinois (Ill.)</t>
+  </si>
+  <si>
+    <t>Maine (Me.)</t>
+  </si>
+  <si>
+    <t>Oregón (Or.)</t>
+  </si>
+  <si>
+    <t>Colorado (Colo.)</t>
+  </si>
+  <si>
+    <t>Connecticut (Conn.)</t>
+  </si>
+  <si>
+    <t>Nueva York (N.Y.)</t>
+  </si>
+  <si>
+    <t>Indiana (Ind.)</t>
+  </si>
+  <si>
+    <t>Arkansas (Ark.)</t>
+  </si>
+  <si>
+    <t>New Jersey (N.J.)</t>
+  </si>
+  <si>
+    <t>Nebraska (Neb.)</t>
+  </si>
+  <si>
+    <t>Luisiana (La.)</t>
+  </si>
+  <si>
+    <t>Vermont (Ver.)</t>
+  </si>
+  <si>
+    <t>Kentucky (Ky.)</t>
+  </si>
+  <si>
+    <t>Florida (Fla.)</t>
+  </si>
+  <si>
+    <t>Arizona (Ariz.)</t>
+  </si>
+  <si>
+    <t>Minnesota (Minn.) (M.N.)</t>
+  </si>
+  <si>
+    <t>Delaware (Del.)</t>
+  </si>
+  <si>
+    <t>Montana (Mont.)</t>
+  </si>
+  <si>
+    <t>Washington (Wash.)</t>
+  </si>
+  <si>
+    <t>Tennessee (Tenn.)</t>
+  </si>
+  <si>
+    <t>Alabama (Al.)</t>
+  </si>
+  <si>
+    <t>Virginia (Va.)</t>
+  </si>
+  <si>
+    <t>Wisconsin (Wis.) (Wisc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan (Mich.) </t>
   </si>
 </sst>
 </file>
@@ -839,6 +944,7 @@
       <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,12 +958,14 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,7 +973,7 @@
       <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1210,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8AA08B-560A-44F9-90AE-289BB033A5C4}">
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BF20" sqref="BF20"/>
+    <sheetView tabSelected="1" topLeftCell="BL20" workbookViewId="0">
+      <selection activeCell="BW27" sqref="BW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1246,13 +1354,13 @@
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1266,13 +1374,13 @@
         <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1294,13 +1402,13 @@
         <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1322,13 +1430,13 @@
         <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1354,25 +1462,25 @@
         <v>56</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1394,13 +1502,13 @@
         <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1426,43 +1534,43 @@
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1488,37 +1596,37 @@
         <v>70</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1562,43 +1670,43 @@
         <v>81</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="Y13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="Z13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1648,7 +1756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1740,7 +1848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1875,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1907,43 +2015,43 @@
         <v>157</v>
       </c>
       <c r="AU20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AX20" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY20" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA20" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AV20" s="4" t="s">
+      <c r="BB20" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AW20" s="4" t="s">
+      <c r="BC20" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AX20" s="4" t="s">
+      <c r="BD20" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AY20" s="4" t="s">
+      <c r="BE20" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AZ20" s="4" t="s">
+      <c r="BF20" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="BA20" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="BB20" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="BC20" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD20" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="BE20" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF20" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1957,7 +2065,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1971,7 +2079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +2087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +2095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -2013,7 +2121,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2021,7 +2129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -2029,190 +2137,226 @@
         <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>169</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>170</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="O27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="S27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="S27" s="2" t="s">
+      <c r="U27" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="V27" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="T27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="U27" s="2" t="s">
+      <c r="W27" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="W27" s="2" t="s">
+      <c r="Y27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y27" s="2" t="s">
+      <c r="AA27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="AC27" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AA27" s="2" t="s">
+      <c r="AE27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH27" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AD27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AF27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG27" s="2" t="s">
+      <c r="AK27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AH27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI27" s="2" t="s">
+      <c r="AM27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN27" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AJ27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK27" s="2" t="s">
+      <c r="AO27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AL27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM27" s="2" t="s">
+      <c r="AP27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AN27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO27" s="2" t="s">
+      <c r="AQ27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AP27" s="2" t="s">
+      <c r="AS27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AQ27" s="2" t="s">
+      <c r="AU27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AR27" s="2" t="s">
+      <c r="AV27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AS27" s="2" t="s">
+      <c r="AY27" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AT27" s="2" t="s">
+      <c r="BA27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AU27" s="2" t="s">
+      <c r="BC27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AV27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AW27" s="2" t="s">
+      <c r="BE27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AX27" s="2" t="s">
+      <c r="BG27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AY27" s="2" t="s">
+      <c r="BI27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AZ27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA27" s="2" t="s">
+      <c r="BJ27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BK27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BL27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BB27" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BD27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BE27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BF27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BG27" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BH27" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK27" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL27" s="2" t="s">
-        <v>205</v>
+      <c r="BM27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BR27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BS27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BU27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BV27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BW27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BX27" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
